--- a/MatRumNam3614/resultados.xlsx
+++ b/MatRumNam3614/resultados.xlsx
@@ -437,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1327,15 +1327,15 @@
       </c>
       <c r="P19">
         <f>L53</f>
-        <v>0.55555555555555558</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="Q19">
         <f>L54</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="R19">
         <f>L55</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
@@ -1942,15 +1942,15 @@
       </c>
       <c r="P32">
         <f>L92</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="Q32">
         <f>L93</f>
-        <v>0.22222222222222221</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="R32">
         <f>L94</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
@@ -2900,6 +2900,9 @@
       <c r="C53" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
       <c r="G53" s="1">
         <v>1</v>
       </c>
@@ -2911,15 +2914,15 @@
       </c>
       <c r="J53" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K53" s="1">
         <f>J53/SUM(J53:J55)</f>
-        <v>0.6</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L53" s="1">
         <f>(J53+$M$1)/(SUM(J53:J55)+$M$1*3)</f>
-        <v>0.55555555555555558</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="N53" t="str">
         <f>A155</f>
@@ -2955,11 +2958,11 @@
       </c>
       <c r="K54" s="1">
         <f>J54/SUM(J53:J55)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L54" s="1">
         <f>(J54+$M$1)/(SUM(J53:J55)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="N54" t="str">
         <f>A158</f>
@@ -2971,15 +2974,15 @@
       </c>
       <c r="P54">
         <f>L158</f>
-        <v>0.3888888888888889</v>
+        <v>0.47619047619047622</v>
       </c>
       <c r="Q54">
         <f>L159</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="R54">
         <f>L160</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
@@ -2995,11 +2998,11 @@
       </c>
       <c r="K55" s="1">
         <f>J55/SUM(J53:J55)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L55" s="1">
         <f>(J55+$M$1)/(SUM(J53:J55)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="N55" t="str">
         <f>A161</f>
@@ -4689,11 +4692,11 @@
       </c>
       <c r="K92" s="3">
         <f>J92/SUM(J92:J94)</f>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L92" s="1">
         <f>(J92+$M$1)/(SUM(J92:J94)+$M$1*3)</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
@@ -4702,7 +4705,9 @@
       <c r="C93" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D93" s="3"/>
+      <c r="D93" s="3">
+        <v>1</v>
+      </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3">
@@ -4712,15 +4717,15 @@
       <c r="I93" s="3"/>
       <c r="J93" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K93" s="3">
         <f>J93/SUM(J92:J94)</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L93" s="1">
         <f>(J93+$M$1)/(SUM(J92:J94)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
@@ -4745,11 +4750,11 @@
       </c>
       <c r="K94" s="3">
         <f>J94/SUM(J92:J94)</f>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L94" s="1">
         <f>(J94+$M$1)/(SUM(J92:J94)+$M$1*3)</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
@@ -6438,7 +6443,9 @@
       <c r="C158" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D158" s="3"/>
+      <c r="D158" s="3">
+        <v>1</v>
+      </c>
       <c r="E158" s="3">
         <v>1</v>
       </c>
@@ -6450,15 +6457,15 @@
       </c>
       <c r="J158" s="3">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K158" s="3">
         <f>J158/SUM(J158:J160)</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="L158" s="1">
         <f>(J158+$M$1)/(SUM(J158:J160)+$M$1*3)</f>
-        <v>0.3888888888888889</v>
+        <v>0.47619047619047622</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
@@ -6483,11 +6490,11 @@
       </c>
       <c r="K159" s="3">
         <f>J159/SUM(J158:J160)</f>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L159" s="1">
         <f>(J159+$M$1)/(SUM(J158:J160)+$M$1*3)</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
@@ -6510,11 +6517,11 @@
       </c>
       <c r="K160" s="3">
         <f>J160/SUM(J158:J160)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L160" s="1">
         <f>(J160+$M$1)/(SUM(J158:J160)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">

--- a/MatRumNam3614/resultados.xlsx
+++ b/MatRumNam3614/resultados.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -437,11 +437,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="9" width="5.85546875" style="1" customWidth="1"/>
@@ -592,15 +592,15 @@
       </c>
       <c r="P3">
         <f>L5</f>
-        <v>0.58333333333333337</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="Q3">
         <f>L6</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="R3">
         <f>L7</f>
-        <v>0.33333333333333331</v>
+        <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -670,11 +670,11 @@
       </c>
       <c r="K5" s="1">
         <f>J5/SUM(J5:J7)</f>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="L5" s="1">
         <f>(J5+$M$1)/(SUM(J5:J7)+$M$1*3)</f>
-        <v>0.58333333333333337</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="N5" t="str">
         <f>A11</f>
@@ -701,17 +701,20 @@
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
       <c r="J6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
         <f>J6/SUM(J5:J7)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L6" s="1">
         <f>(J6+$M$1)/(SUM(J5:J7)+$M$1*3)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="N6" t="str">
         <f>A14</f>
@@ -747,11 +750,11 @@
       </c>
       <c r="K7" s="1">
         <f>J7/SUM(J5:J7)</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="L7" s="1">
         <f>(J7+$M$1)/(SUM(J5:J7)+$M$1*3)</f>
-        <v>0.33333333333333331</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="N7" t="str">
         <f>A17</f>
@@ -3753,15 +3756,15 @@
       </c>
       <c r="P71">
         <f>L209</f>
-        <v>0.72222222222222221</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="Q71">
         <f>L210</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="R71">
         <f>L211</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
@@ -7816,6 +7819,9 @@
       <c r="C209" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D209" s="1">
+        <v>1</v>
+      </c>
       <c r="E209" s="1">
         <v>1</v>
       </c>
@@ -7830,15 +7836,15 @@
       </c>
       <c r="J209" s="4">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K209" s="1">
         <f>J209/SUM(J209:J211)</f>
-        <v>0.8</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="L209" s="1">
         <f>(J209+$M$1)/(SUM(J209:J211)+$M$1*3)</f>
-        <v>0.72222222222222221</v>
+        <v>0.76190476190476186</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.2">
@@ -7854,11 +7860,11 @@
       </c>
       <c r="K210" s="1">
         <f>J210/SUM(J209:J211)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L210" s="1">
         <f>(J210+$M$1)/(SUM(J209:J211)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
@@ -7875,7 +7881,7 @@
       </c>
       <c r="L211" s="1">
         <f>(J211+$M$1)/(SUM(J209:J211)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.2">

--- a/MatRumNam3614/resultados.xlsx
+++ b/MatRumNam3614/resultados.xlsx
@@ -437,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="D278" sqref="D278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1670,15 +1670,15 @@
       </c>
       <c r="P26">
         <f>L74</f>
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="Q26">
         <f>L75</f>
-        <v>0.33333333333333331</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="R26">
         <f>L76</f>
-        <v>8.3333333333333329E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
@@ -2220,15 +2220,15 @@
       </c>
       <c r="P38">
         <f>L110</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="Q38">
         <f>L111</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="R38">
         <f>L112</f>
-        <v>0.55555555555555558</v>
+        <v>0.61904761904761896</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
@@ -3117,15 +3117,15 @@
       </c>
       <c r="P57">
         <f>L167</f>
-        <v>0.88888888888888884</v>
+        <v>0.90476190476190477</v>
       </c>
       <c r="Q57">
         <f>L168</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="R57">
         <f>L169</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
@@ -3851,7 +3851,9 @@
       <c r="C74" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="3"/>
+      <c r="D74" s="3">
+        <v>1</v>
+      </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3">
         <v>1</v>
@@ -3863,15 +3865,15 @@
       <c r="I74" s="3"/>
       <c r="J74" s="3">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K74" s="3">
         <f>J74/SUM(J74:J76)</f>
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="L74" s="1">
         <f>(J74+$M$1)/(SUM(J74:J76)+$M$1*3)</f>
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="N74" t="str">
         <f>A218</f>
@@ -3914,11 +3916,11 @@
       </c>
       <c r="K75" s="3">
         <f>J75/SUM(J74:J76)</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="L75" s="1">
         <f>(J75+$M$1)/(SUM(J74:J76)+$M$1*3)</f>
-        <v>0.33333333333333331</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="N75" t="str">
         <f>A221</f>
@@ -3963,7 +3965,7 @@
       </c>
       <c r="L76" s="1">
         <f>(J76+$M$1)/(SUM(J74:J76)+$M$1*3)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="N76" t="str">
         <f>A224</f>
@@ -4021,15 +4023,15 @@
       </c>
       <c r="P77">
         <f>L227</f>
-        <v>0.72222222222222221</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="Q77">
         <f>L228</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="R77">
         <f>L229</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
@@ -4529,15 +4531,15 @@
       </c>
       <c r="P88">
         <f>L260</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="Q88">
         <f>L261</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="R88">
         <f>L262</f>
-        <v>0.22222222222222221</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
@@ -5178,11 +5180,11 @@
       </c>
       <c r="K110" s="3">
         <f>J110/SUM(J110:J112)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L110" s="1">
         <f>(J110+$M$1)/(SUM(J110:J112)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
@@ -5205,11 +5207,11 @@
       </c>
       <c r="K111" s="3">
         <f>J111/SUM(J110:J112)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L111" s="1">
         <f>(J111+$M$1)/(SUM(J110:J112)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
@@ -5218,7 +5220,9 @@
       <c r="C112" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D112" s="3"/>
+      <c r="D112" s="3">
+        <v>1</v>
+      </c>
       <c r="E112" s="3">
         <v>1</v>
       </c>
@@ -5232,15 +5236,15 @@
       </c>
       <c r="J112" s="3">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K112" s="3">
         <f>J112/SUM(J110:J112)</f>
-        <v>0.6</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L112" s="1">
         <f>(J112+$M$1)/(SUM(J110:J112)+$M$1*3)</f>
-        <v>0.55555555555555558</v>
+        <v>0.61904761904761896</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
@@ -6700,6 +6704,9 @@
       <c r="C167" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D167" s="1">
+        <v>1</v>
+      </c>
       <c r="E167" s="1">
         <v>1</v>
       </c>
@@ -6717,7 +6724,7 @@
       </c>
       <c r="J167" s="4">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K167" s="1">
         <f>J167/SUM(J167:J169)</f>
@@ -6725,7 +6732,7 @@
       </c>
       <c r="L167" s="1">
         <f>(J167+$M$1)/(SUM(J167:J169)+$M$1*3)</f>
-        <v>0.88888888888888884</v>
+        <v>0.90476190476190477</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
@@ -6742,7 +6749,7 @@
       </c>
       <c r="L168" s="1">
         <f>(J168+$M$1)/(SUM(J167:J169)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
@@ -6759,7 +6766,7 @@
       </c>
       <c r="L169" s="1">
         <f>(J169+$M$1)/(SUM(J167:J169)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
@@ -8301,6 +8308,9 @@
       <c r="C227" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D227" s="1">
+        <v>1</v>
+      </c>
       <c r="E227" s="1">
         <v>1</v>
       </c>
@@ -8315,15 +8325,15 @@
       </c>
       <c r="J227" s="4">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K227" s="1">
         <f>J227/SUM(J227:J229)</f>
-        <v>0.8</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="L227" s="1">
         <f>(J227+$M$1)/(SUM(J227:J229)+$M$1*3)</f>
-        <v>0.72222222222222221</v>
+        <v>0.76190476190476186</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
@@ -8339,11 +8349,11 @@
       </c>
       <c r="K228" s="1">
         <f>J228/SUM(J227:J229)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L228" s="1">
         <f>(J228+$M$1)/(SUM(J227:J229)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
@@ -8360,7 +8370,7 @@
       </c>
       <c r="L229" s="1">
         <f>(J229+$M$1)/(SUM(J227:J229)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
@@ -9190,11 +9200,11 @@
       </c>
       <c r="K260" s="3">
         <f>J260/SUM(J260:J262)</f>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L260" s="1">
         <f>(J260+$M$1)/(SUM(J260:J262)+$M$1*3)</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -9219,11 +9229,11 @@
       </c>
       <c r="K261" s="3">
         <f>J261/SUM(J260:J262)</f>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L261" s="1">
         <f>(J261+$M$1)/(SUM(J260:J262)+$M$1*3)</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
@@ -9232,7 +9242,9 @@
       <c r="C262" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D262" s="3"/>
+      <c r="D262" s="3">
+        <v>1</v>
+      </c>
       <c r="E262" s="3"/>
       <c r="F262" s="3"/>
       <c r="G262" s="3"/>
@@ -9242,15 +9254,15 @@
       <c r="I262" s="3"/>
       <c r="J262" s="3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K262" s="3">
         <f>J262/SUM(J260:J262)</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L262" s="1">
         <f>(J262+$M$1)/(SUM(J260:J262)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">

--- a/MatRumNam3614/resultados.xlsx
+++ b/MatRumNam3614/resultados.xlsx
@@ -437,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="D278" sqref="D278"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1104,15 +1104,15 @@
       </c>
       <c r="P14">
         <f>L38</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="Q14">
         <f>L39</f>
-        <v>0.55555555555555558</v>
+        <v>0.47619047619047622</v>
       </c>
       <c r="R14">
         <f>L40</f>
-        <v>0.22222222222222221</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -1715,15 +1715,15 @@
       </c>
       <c r="P27">
         <f>L77</f>
-        <v>0.33333333333333331</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="Q27">
         <f>L78</f>
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="R27">
         <f>L79</f>
-        <v>8.3333333333333329E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
@@ -1809,15 +1809,15 @@
       </c>
       <c r="P29">
         <f>L83</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="Q29">
         <f>L84</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="R29">
         <f>L85</f>
-        <v>0.55555555555555558</v>
+        <v>0.61904761904761896</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
@@ -2204,11 +2204,11 @@
       </c>
       <c r="K38" s="3">
         <f>J38/SUM(J38:J40)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L38" s="1">
         <f>(J38+$M$1)/(SUM(J38:J40)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="N38" t="str">
         <f>A110</f>
@@ -2255,11 +2255,11 @@
       </c>
       <c r="K39" s="3">
         <f>J39/SUM(J38:J40)</f>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L39" s="1">
         <f>(J39+$M$1)/(SUM(J38:J40)+$M$1*3)</f>
-        <v>0.55555555555555558</v>
+        <v>0.47619047619047622</v>
       </c>
       <c r="N39" t="str">
         <f>A113</f>
@@ -2288,7 +2288,9 @@
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="3"/>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
       <c r="E40" s="3">
         <v>1</v>
       </c>
@@ -2298,15 +2300,15 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K40" s="3">
         <f>J40/SUM(J38:J40)</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L40" s="1">
         <f>(J40+$M$1)/(SUM(J38:J40)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="N40" t="str">
         <f>A116</f>
@@ -2882,15 +2884,15 @@
       </c>
       <c r="P52">
         <f>L152</f>
-        <v>0.72222222222222221</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="Q52">
         <f>L153</f>
-        <v>0.22222222222222221</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="R52">
         <f>L154</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
@@ -3830,15 +3832,15 @@
       </c>
       <c r="P73">
         <f>L215</f>
-        <v>0.72222222222222221</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="Q73">
         <f>L216</f>
-        <v>0.22222222222222221</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="R73">
         <f>L217</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
@@ -4007,11 +4009,11 @@
       </c>
       <c r="K77" s="1">
         <f>J77/SUM(J77:J79)</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="L77" s="1">
         <f>(J77+$M$1)/(SUM(J77:J79)+$M$1*3)</f>
-        <v>0.33333333333333331</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="N77" t="str">
         <f>A227</f>
@@ -4038,6 +4040,9 @@
       <c r="C78" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D78" s="1">
+        <v>1</v>
+      </c>
       <c r="G78" s="1">
         <v>1</v>
       </c>
@@ -4046,15 +4051,15 @@
       </c>
       <c r="J78" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K78" s="1">
         <f>J78/SUM(J77:J79)</f>
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="L78" s="1">
         <f>(J78+$M$1)/(SUM(J77:J79)+$M$1*3)</f>
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="N78" t="str">
         <f>A230</f>
@@ -4091,7 +4096,7 @@
       </c>
       <c r="L79" s="1">
         <f>(J79+$M$1)/(SUM(J77:J79)+$M$1*3)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="N79" t="str">
         <f>A233</f>
@@ -4280,11 +4285,11 @@
       </c>
       <c r="K83" s="1">
         <f>J83/SUM(J83:J85)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L83" s="1">
         <f>(J83+$M$1)/(SUM(J83:J85)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="N83" t="str">
         <f>A245</f>
@@ -4320,11 +4325,11 @@
       </c>
       <c r="K84" s="1">
         <f>J84/SUM(J83:J85)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L84" s="1">
         <f>(J84+$M$1)/(SUM(J83:J85)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="N84" t="str">
         <f>A248</f>
@@ -4351,6 +4356,9 @@
       <c r="C85" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="D85" s="1">
+        <v>1</v>
+      </c>
       <c r="E85" s="1">
         <v>1</v>
       </c>
@@ -4362,15 +4370,15 @@
       </c>
       <c r="J85" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K85" s="1">
         <f>J85/SUM(J83:J85)</f>
-        <v>0.6</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L85" s="1">
         <f>(J85+$M$1)/(SUM(J83:J85)+$M$1*3)</f>
-        <v>0.55555555555555558</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="N85" t="str">
         <f>A251</f>
@@ -6309,11 +6317,11 @@
       </c>
       <c r="K152" s="3">
         <f>J152/SUM(J152:J154)</f>
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L152" s="1">
         <f>(J152+$M$1)/(SUM(J152:J154)+$M$1*3)</f>
-        <v>0.72222222222222221</v>
+        <v>0.61904761904761896</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
@@ -6322,7 +6330,9 @@
       <c r="C153" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D153" s="3"/>
+      <c r="D153" s="3">
+        <v>1</v>
+      </c>
       <c r="E153" s="3"/>
       <c r="F153" s="3">
         <v>1</v>
@@ -6332,15 +6342,15 @@
       <c r="I153" s="3"/>
       <c r="J153" s="3">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K153" s="3">
         <f>J153/SUM(J152:J154)</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L153" s="1">
         <f>(J153+$M$1)/(SUM(J152:J154)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
@@ -6365,7 +6375,7 @@
       </c>
       <c r="L154" s="1">
         <f>(J154+$M$1)/(SUM(J152:J154)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
@@ -8008,31 +8018,34 @@
       </c>
       <c r="K215" s="1">
         <f>J215/SUM(J215:J217)</f>
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L215" s="1">
         <f>(J215+$M$1)/(SUM(J215:J217)+$M$1*3)</f>
-        <v>0.72222222222222221</v>
+        <v>0.61904761904761896</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C216" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D216" s="1">
+        <v>1</v>
+      </c>
       <c r="G216" s="1">
         <v>1</v>
       </c>
       <c r="J216" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K216" s="1">
         <f>J216/SUM(J215:J217)</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L216" s="1">
         <f>(J216+$M$1)/(SUM(J215:J217)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
@@ -8049,7 +8062,7 @@
       </c>
       <c r="L217" s="1">
         <f>(J217+$M$1)/(SUM(J215:J217)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">

--- a/MatRumNam3614/resultados.xlsx
+++ b/MatRumNam3614/resultados.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\reyzaguirre\Documents\NoConverge\MatRumNam3614\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="600" windowWidth="10230" windowHeight="7260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -144,12 +149,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -191,7 +199,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -226,7 +234,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -437,11 +445,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="D282" sqref="D282"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="9" width="5.85546875" style="1" customWidth="1"/>
@@ -509,7 +517,9 @@
       <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3">
         <v>1</v>
@@ -525,15 +535,15 @@
       </c>
       <c r="J2" s="3">
         <f>SUM(D2:I2)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K2" s="3">
         <f>J2/SUM(J2:J4)</f>
-        <v>0.8</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="L2" s="1">
         <f>(J2+$M$1)/(SUM(J2:J4)+$M$1*3)</f>
-        <v>0.72222222222222221</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="N2" t="str">
         <f>A2</f>
@@ -545,15 +555,15 @@
       </c>
       <c r="P2">
         <f>L2</f>
-        <v>0.72222222222222221</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="Q2">
         <f>L3</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="R2">
         <f>L4</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -576,11 +586,11 @@
       </c>
       <c r="K3" s="3">
         <f>J3/SUM(J2:J4)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L3" s="1">
         <f>(J3+$M$1)/(SUM(J2:J4)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="N3" t="str">
         <f>A5</f>
@@ -625,7 +635,7 @@
       </c>
       <c r="L4" s="1">
         <f>(J4+$M$1)/(SUM(J2:J4)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="N4" t="str">
         <f>A8</f>
@@ -2406,15 +2416,15 @@
       </c>
       <c r="P42">
         <f>L122</f>
-        <v>0.72222222222222221</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="Q42">
         <f>L123</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="R42">
         <f>L124</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
@@ -3164,15 +3174,15 @@
       </c>
       <c r="P58">
         <f>L170</f>
-        <v>0.58333333333333337</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="Q58">
         <f>L171</f>
-        <v>0.33333333333333331</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="R58">
         <f>L172</f>
-        <v>8.3333333333333329E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
@@ -4210,15 +4220,15 @@
       </c>
       <c r="P81">
         <f>L239</f>
-        <v>0.55555555555555558</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="Q81">
         <f>L240</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="R81">
         <f>L241</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
@@ -4447,15 +4457,15 @@
       </c>
       <c r="P86">
         <f>L254</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="Q86">
         <f>L255</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="R86">
         <f>L256</f>
-        <v>0.72222222222222221</v>
+        <v>0.76190476190476186</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.2">
@@ -5494,7 +5504,9 @@
       <c r="C122" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D122" s="3"/>
+      <c r="D122" s="3">
+        <v>1</v>
+      </c>
       <c r="E122" s="3">
         <v>1</v>
       </c>
@@ -5510,15 +5522,15 @@
       </c>
       <c r="J122" s="3">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K122" s="3">
         <f>J122/SUM(J122:J124)</f>
-        <v>0.8</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="L122" s="1">
         <f>(J122+$M$1)/(SUM(J122:J124)+$M$1*3)</f>
-        <v>0.72222222222222221</v>
+        <v>0.76190476190476186</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
@@ -5541,11 +5553,11 @@
       </c>
       <c r="K123" s="3">
         <f>J123/SUM(J122:J124)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L123" s="1">
         <f>(J123+$M$1)/(SUM(J122:J124)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
@@ -5570,7 +5582,7 @@
       </c>
       <c r="L124" s="1">
         <f>(J124+$M$1)/(SUM(J122:J124)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
@@ -6805,11 +6817,11 @@
       </c>
       <c r="K170" s="3">
         <f>J170/SUM(J170:J172)</f>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="L170" s="1">
         <f>(J170+$M$1)/(SUM(J170:J172)+$M$1*3)</f>
-        <v>0.58333333333333337</v>
+        <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
@@ -6818,7 +6830,9 @@
       <c r="C171" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D171" s="3"/>
+      <c r="D171" s="3">
+        <v>1</v>
+      </c>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
       <c r="G171" s="3">
@@ -6828,15 +6842,15 @@
       <c r="I171" s="3"/>
       <c r="J171" s="3">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K171" s="3">
         <f>J171/SUM(J170:J172)</f>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="L171" s="1">
         <f>(J171+$M$1)/(SUM(J170:J172)+$M$1*3)</f>
-        <v>0.33333333333333331</v>
+        <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
@@ -6861,7 +6875,7 @@
       </c>
       <c r="L172" s="1">
         <f>(J172+$M$1)/(SUM(J170:J172)+$M$1*3)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.2">
@@ -8648,6 +8662,9 @@
       <c r="C239" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D239" s="1">
+        <v>1</v>
+      </c>
       <c r="E239" s="1">
         <v>1</v>
       </c>
@@ -8659,15 +8676,15 @@
       </c>
       <c r="J239" s="4">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K239" s="1">
         <f>J239/SUM(J239:J241)</f>
-        <v>0.6</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L239" s="1">
         <f>(J239+$M$1)/(SUM(J239:J241)+$M$1*3)</f>
-        <v>0.55555555555555558</v>
+        <v>0.61904761904761896</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.2">
@@ -8683,11 +8700,11 @@
       </c>
       <c r="K240" s="1">
         <f>J240/SUM(J239:J241)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L240" s="1">
         <f>(J240+$M$1)/(SUM(J239:J241)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.2">
@@ -8703,11 +8720,11 @@
       </c>
       <c r="K241" s="1">
         <f>J241/SUM(J239:J241)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L241" s="1">
         <f>(J241+$M$1)/(SUM(J239:J241)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.2">
@@ -9052,7 +9069,7 @@
       </c>
       <c r="L254" s="1">
         <f>(J254+$M$1)/(SUM(J254:J256)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.2">
@@ -9075,11 +9092,11 @@
       </c>
       <c r="K255" s="3">
         <f>J255/SUM(J254:J256)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L255" s="1">
         <f>(J255+$M$1)/(SUM(J254:J256)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.2">
@@ -9088,7 +9105,9 @@
       <c r="C256" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D256" s="3"/>
+      <c r="D256" s="3">
+        <v>1</v>
+      </c>
       <c r="E256" s="3">
         <v>1</v>
       </c>
@@ -9104,15 +9123,15 @@
       <c r="I256" s="3"/>
       <c r="J256" s="3">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K256" s="3">
         <f>J256/SUM(J254:J256)</f>
-        <v>0.8</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="L256" s="1">
         <f>(J256+$M$1)/(SUM(J254:J256)+$M$1*3)</f>
-        <v>0.72222222222222221</v>
+        <v>0.76190476190476186</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.2">

--- a/MatRumNam3614/resultados.xlsx
+++ b/MatRumNam3614/resultados.xlsx
@@ -437,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="D239" sqref="D239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2406,15 +2406,15 @@
       </c>
       <c r="P42">
         <f>L122</f>
-        <v>0.72222222222222221</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="Q42">
         <f>L123</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="R42">
         <f>L124</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
@@ -5494,7 +5494,9 @@
       <c r="C122" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D122" s="3"/>
+      <c r="D122" s="3">
+        <v>1</v>
+      </c>
       <c r="E122" s="3">
         <v>1</v>
       </c>
@@ -5510,15 +5512,15 @@
       </c>
       <c r="J122" s="3">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K122" s="3">
         <f>J122/SUM(J122:J124)</f>
-        <v>0.8</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="L122" s="1">
         <f>(J122+$M$1)/(SUM(J122:J124)+$M$1*3)</f>
-        <v>0.72222222222222221</v>
+        <v>0.76190476190476186</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
@@ -5541,11 +5543,11 @@
       </c>
       <c r="K123" s="3">
         <f>J123/SUM(J122:J124)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L123" s="1">
         <f>(J123+$M$1)/(SUM(J122:J124)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
@@ -5570,7 +5572,7 @@
       </c>
       <c r="L124" s="1">
         <f>(J124+$M$1)/(SUM(J122:J124)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">

--- a/MatRumNam3614/resultados.xlsx
+++ b/MatRumNam3614/resultados.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\reyzaguirre\Documents\NoConverge\MatRumNam3614\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepos\NoConverge\MatRumNam3614\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="D282" sqref="D282"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="D256" sqref="D256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -880,15 +880,15 @@
       </c>
       <c r="P9">
         <f>L23</f>
-        <v>0.72222222222222221</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="Q9">
         <f>L24</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="R9">
         <f>L25</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -1254,15 +1254,15 @@
       </c>
       <c r="P17">
         <f>L47</f>
-        <v>0.55555555555555558</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="Q17">
         <f>L48</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="R17">
         <f>L49</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
@@ -1444,15 +1444,15 @@
       </c>
       <c r="P21">
         <f>L59</f>
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="Q21">
         <f>L60</f>
-        <v>0.33333333333333331</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="R21">
         <f>L61</f>
-        <v>8.3333333333333329E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
@@ -1510,6 +1510,9 @@
       <c r="C23" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
@@ -1524,15 +1527,15 @@
       </c>
       <c r="J23" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K23" s="1">
         <f>J23/SUM(J23:J25)</f>
-        <v>0.8</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="L23" s="1">
         <f>(J23+$M$1)/(SUM(J23:J25)+$M$1*3)</f>
-        <v>0.72222222222222221</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="N23" t="str">
         <f>A65</f>
@@ -1544,15 +1547,15 @@
       </c>
       <c r="P23">
         <f>L65</f>
-        <v>0.33333333333333331</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="Q23">
         <f>L66</f>
-        <v>0.58333333333333337</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="R23">
         <f>L67</f>
-        <v>8.3333333333333329E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
@@ -1568,11 +1571,11 @@
       </c>
       <c r="K24" s="1">
         <f>J24/SUM(J23:J25)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L24" s="1">
         <f>(J24+$M$1)/(SUM(J23:J25)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="N24" t="str">
         <f>A68</f>
@@ -1609,7 +1612,7 @@
       </c>
       <c r="L25" s="1">
         <f>(J25+$M$1)/(SUM(J23:J25)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="N25" t="str">
         <f>A71</f>
@@ -1862,15 +1865,15 @@
       </c>
       <c r="P30">
         <f>L86</f>
-        <v>0.72222222222222221</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="Q30">
         <f>L87</f>
-        <v>0.22222222222222221</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="R30">
         <f>L88</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
@@ -2611,15 +2614,15 @@
       </c>
       <c r="P46">
         <f>L134</f>
-        <v>0.55555555555555558</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="Q46">
         <f>L135</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="R46">
         <f>L136</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
@@ -2632,6 +2635,9 @@
       <c r="C47" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
       <c r="F47" s="1">
         <v>1</v>
       </c>
@@ -2643,15 +2649,15 @@
       </c>
       <c r="J47" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K47" s="1">
         <f>J47/SUM(J47:J49)</f>
-        <v>0.6</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L47" s="1">
         <f>(J47+$M$1)/(SUM(J47:J49)+$M$1*3)</f>
-        <v>0.55555555555555558</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="N47" t="str">
         <f>A137</f>
@@ -2690,11 +2696,11 @@
       </c>
       <c r="K48" s="1">
         <f>J48/SUM(J47:J49)</f>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L48" s="1">
         <f>(J48+$M$1)/(SUM(J47:J49)+$M$1*3)</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="N48" t="str">
         <f>A140</f>
@@ -2731,7 +2737,7 @@
       </c>
       <c r="L49" s="1">
         <f>(J49+$M$1)/(SUM(J47:J49)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="N49" t="str">
         <f>A143</f>
@@ -2743,15 +2749,15 @@
       </c>
       <c r="P49">
         <f>L143</f>
-        <v>0.58333333333333337</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="Q49">
         <f>L144</f>
-        <v>0.33333333333333331</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="R49">
         <f>L145</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
@@ -2796,15 +2802,15 @@
       </c>
       <c r="P50">
         <f>L146</f>
-        <v>0.72222222222222221</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="Q50">
         <f>L147</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="R50">
         <f>L148</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
@@ -3195,6 +3201,9 @@
       <c r="C59" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
       <c r="G59" s="1">
         <v>1</v>
       </c>
@@ -3203,15 +3212,15 @@
       </c>
       <c r="J59" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K59" s="1">
         <f>J59/SUM(J59:J61)</f>
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="L59" s="1">
         <f>(J59+$M$1)/(SUM(J59:J61)+$M$1*3)</f>
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="N59" t="str">
         <f>A173</f>
@@ -3223,15 +3232,15 @@
       </c>
       <c r="P59">
         <f>L173</f>
-        <v>0.55555555555555558</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="Q59">
         <f>L174</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="R59">
         <f>L175</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
@@ -3247,11 +3256,11 @@
       </c>
       <c r="K60" s="1">
         <f>J60/SUM(J59:J61)</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="L60" s="1">
         <f>(J60+$M$1)/(SUM(J59:J61)+$M$1*3)</f>
-        <v>0.33333333333333331</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="N60" t="str">
         <f>A176</f>
@@ -3263,15 +3272,15 @@
       </c>
       <c r="P60">
         <f>L176</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="Q60">
         <f>L177</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="R60">
         <f>L178</f>
-        <v>0.72222222222222221</v>
+        <v>0.76190476190476186</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
@@ -3288,7 +3297,7 @@
       </c>
       <c r="L61" s="1">
         <f>(J61+$M$1)/(SUM(J59:J61)+$M$1*3)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="N61" t="str">
         <f>A179</f>
@@ -3466,20 +3475,23 @@
       <c r="C65" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
       <c r="H65" s="1">
         <v>1</v>
       </c>
       <c r="J65" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K65" s="1">
         <f>J65/SUM(J65:J67)</f>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="L65" s="1">
         <f>(J65+$M$1)/(SUM(J65:J67)+$M$1*3)</f>
-        <v>0.33333333333333331</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="N65" t="str">
         <f>A191</f>
@@ -3491,15 +3503,15 @@
       </c>
       <c r="P65">
         <f>L191</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="Q65">
         <f>L192</f>
-        <v>0.55555555555555558</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="R65">
         <f>L193</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
@@ -3518,11 +3530,11 @@
       </c>
       <c r="K66" s="1">
         <f>J66/SUM(J65:J67)</f>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="L66" s="1">
         <f>(J66+$M$1)/(SUM(J65:J67)+$M$1*3)</f>
-        <v>0.58333333333333337</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="N66" t="str">
         <f>A194</f>
@@ -3559,7 +3571,7 @@
       </c>
       <c r="L67" s="1">
         <f>(J67+$M$1)/(SUM(J65:J67)+$M$1*3)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="N67" t="str">
         <f>A197</f>
@@ -3716,15 +3728,15 @@
       </c>
       <c r="P70">
         <f>L206</f>
-        <v>0.22222222222222221</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="Q70">
         <f>L207</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="R70">
         <f>L208</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
@@ -4173,15 +4185,15 @@
       </c>
       <c r="P80">
         <f>L236</f>
-        <v>0.3888888888888889</v>
+        <v>0.47619047619047622</v>
       </c>
       <c r="Q80">
         <f>L237</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="R80">
         <f>L238</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.2">
@@ -4265,15 +4277,15 @@
       </c>
       <c r="P82">
         <f>L242</f>
-        <v>0.3888888888888889</v>
+        <v>0.47619047619047622</v>
       </c>
       <c r="Q82">
         <f>L243</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="R82">
         <f>L244</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.2">
@@ -4311,15 +4323,15 @@
       </c>
       <c r="P83">
         <f>L245</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="Q83">
         <f>L246</f>
-        <v>5.5555555555555552E-2</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="R83">
         <f>L247</f>
-        <v>0.72222222222222221</v>
+        <v>0.61904761904761896</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.2">
@@ -4441,11 +4453,11 @@
       </c>
       <c r="K86" s="3">
         <f>J86/SUM(J86:J88)</f>
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L86" s="1">
         <f>(J86+$M$1)/(SUM(J86:J88)+$M$1*3)</f>
-        <v>0.72222222222222221</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="N86" t="str">
         <f>A254</f>
@@ -4474,7 +4486,9 @@
       <c r="C87" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="3"/>
+      <c r="D87" s="3">
+        <v>1</v>
+      </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
@@ -4484,15 +4498,15 @@
       <c r="I87" s="3"/>
       <c r="J87" s="3">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K87" s="3">
         <f>J87/SUM(J86:J88)</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L87" s="1">
         <f>(J87+$M$1)/(SUM(J86:J88)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="N87" t="str">
         <f>A257</f>
@@ -4537,7 +4551,7 @@
       </c>
       <c r="L88" s="1">
         <f>(J88+$M$1)/(SUM(J86:J88)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="N88" t="str">
         <f>A260</f>
@@ -5830,7 +5844,9 @@
       <c r="C134" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D134" s="3"/>
+      <c r="D134" s="3">
+        <v>1</v>
+      </c>
       <c r="E134" s="3"/>
       <c r="F134" s="3">
         <v>1</v>
@@ -5844,15 +5860,15 @@
       </c>
       <c r="J134" s="3">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K134" s="3">
         <f>J134/SUM(J134:J136)</f>
-        <v>0.6</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L134" s="1">
         <f>(J134+$M$1)/(SUM(J134:J136)+$M$1*3)</f>
-        <v>0.55555555555555558</v>
+        <v>0.61904761904761896</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
@@ -5875,11 +5891,11 @@
       </c>
       <c r="K135" s="3">
         <f>J135/SUM(J134:J136)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L135" s="1">
         <f>(J135+$M$1)/(SUM(J134:J136)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
@@ -5902,11 +5918,11 @@
       </c>
       <c r="K136" s="3">
         <f>J136/SUM(J134:J136)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L136" s="1">
         <f>(J136+$M$1)/(SUM(J134:J136)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
@@ -6094,11 +6110,11 @@
       </c>
       <c r="K143" s="1">
         <f>J143/SUM(J143:J145)</f>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="L143" s="1">
         <f>(J143+$M$1)/(SUM(J143:J145)+$M$1*3)</f>
-        <v>0.58333333333333337</v>
+        <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
@@ -6114,28 +6130,31 @@
       </c>
       <c r="K144" s="1">
         <f>J144/SUM(J143:J145)</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="L144" s="1">
         <f>(J144+$M$1)/(SUM(J143:J145)+$M$1*3)</f>
-        <v>0.33333333333333331</v>
+        <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C145" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="D145" s="1">
+        <v>1</v>
+      </c>
       <c r="J145" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K145" s="1">
         <f>J145/SUM(J143:J145)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L145" s="1">
         <f>(J145+$M$1)/(SUM(J143:J145)+$M$1*3)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
@@ -6148,7 +6167,9 @@
       <c r="C146" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D146" s="3"/>
+      <c r="D146" s="3">
+        <v>1</v>
+      </c>
       <c r="E146" s="3">
         <v>1</v>
       </c>
@@ -6164,15 +6185,15 @@
       <c r="I146" s="3"/>
       <c r="J146" s="3">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K146" s="3">
         <f>J146/SUM(J146:J148)</f>
-        <v>0.8</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="L146" s="1">
         <f>(J146+$M$1)/(SUM(J146:J148)+$M$1*3)</f>
-        <v>0.72222222222222221</v>
+        <v>0.76190476190476186</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
@@ -6195,11 +6216,11 @@
       </c>
       <c r="K147" s="3">
         <f>J147/SUM(J146:J148)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L147" s="1">
         <f>(J147+$M$1)/(SUM(J146:J148)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
@@ -6224,7 +6245,7 @@
       </c>
       <c r="L148" s="1">
         <f>(J148+$M$1)/(SUM(J146:J148)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
@@ -6888,6 +6909,9 @@
       <c r="C173" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D173" s="1">
+        <v>1</v>
+      </c>
       <c r="G173" s="1">
         <v>1</v>
       </c>
@@ -6899,15 +6923,15 @@
       </c>
       <c r="J173" s="4">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K173" s="1">
         <f>J173/SUM(J173:J175)</f>
-        <v>0.6</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L173" s="1">
         <f>(J173+$M$1)/(SUM(J173:J175)+$M$1*3)</f>
-        <v>0.55555555555555558</v>
+        <v>0.61904761904761896</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
@@ -6924,7 +6948,7 @@
       </c>
       <c r="L174" s="1">
         <f>(J174+$M$1)/(SUM(J173:J175)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.2">
@@ -6943,11 +6967,11 @@
       </c>
       <c r="K175" s="1">
         <f>J175/SUM(J173:J175)</f>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L175" s="1">
         <f>(J175+$M$1)/(SUM(J173:J175)+$M$1*3)</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.2">
@@ -6974,11 +6998,11 @@
       </c>
       <c r="K176" s="3">
         <f>J176/SUM(J176:J178)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L176" s="1">
         <f>(J176+$M$1)/(SUM(J176:J178)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
@@ -7003,7 +7027,7 @@
       </c>
       <c r="L177" s="1">
         <f>(J177+$M$1)/(SUM(J176:J178)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
@@ -7012,7 +7036,9 @@
       <c r="C178" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D178" s="3"/>
+      <c r="D178" s="3">
+        <v>1</v>
+      </c>
       <c r="E178" s="3">
         <v>1</v>
       </c>
@@ -7028,15 +7054,15 @@
       <c r="I178" s="3"/>
       <c r="J178" s="3">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K178" s="3">
         <f>J178/SUM(J176:J178)</f>
-        <v>0.8</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="L178" s="1">
         <f>(J178+$M$1)/(SUM(J176:J178)+$M$1*3)</f>
-        <v>0.72222222222222221</v>
+        <v>0.76190476190476186</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
@@ -7381,13 +7407,16 @@
       </c>
       <c r="L191" s="1">
         <f>(J191+$M$1)/(SUM(J191:J193)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C192" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D192" s="1">
+        <v>1</v>
+      </c>
       <c r="E192" s="1">
         <v>1</v>
       </c>
@@ -7399,15 +7428,15 @@
       </c>
       <c r="J192" s="4">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K192" s="1">
         <f>J192/SUM(J191:J193)</f>
-        <v>0.6</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L192" s="1">
         <f>(J192+$M$1)/(SUM(J191:J193)+$M$1*3)</f>
-        <v>0.55555555555555558</v>
+        <v>0.61904761904761896</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.2">
@@ -7426,11 +7455,11 @@
       </c>
       <c r="K193" s="1">
         <f>J193/SUM(J191:J193)</f>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L193" s="1">
         <f>(J193+$M$1)/(SUM(J191:J193)+$M$1*3)</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
@@ -7761,7 +7790,9 @@
       <c r="C206" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D206" s="3"/>
+      <c r="D206" s="3">
+        <v>1</v>
+      </c>
       <c r="E206" s="3">
         <v>1</v>
       </c>
@@ -7771,15 +7802,15 @@
       <c r="I206" s="3"/>
       <c r="J206" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K206" s="3">
         <f>J206/SUM(J206:J208)</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L206" s="1">
         <f>(J206+$M$1)/(SUM(J206:J208)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
@@ -7804,11 +7835,11 @@
       </c>
       <c r="K207" s="3">
         <f>J207/SUM(J206:J208)</f>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L207" s="1">
         <f>(J207+$M$1)/(SUM(J206:J208)+$M$1*3)</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
@@ -7833,11 +7864,11 @@
       </c>
       <c r="K208" s="3">
         <f>J208/SUM(J206:J208)</f>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L208" s="1">
         <f>(J208+$M$1)/(SUM(J206:J208)+$M$1*3)</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
@@ -8573,7 +8604,9 @@
       <c r="C236" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D236" s="3"/>
+      <c r="D236" s="3">
+        <v>1</v>
+      </c>
       <c r="E236" s="3"/>
       <c r="F236" s="3">
         <v>1</v>
@@ -8585,15 +8618,15 @@
       <c r="I236" s="3"/>
       <c r="J236" s="3">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K236" s="3">
         <f>J236/SUM(J236:J238)</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="L236" s="1">
         <f>(J236+$M$1)/(SUM(J236:J238)+$M$1*3)</f>
-        <v>0.3888888888888889</v>
+        <v>0.47619047619047622</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.2">
@@ -8616,11 +8649,11 @@
       </c>
       <c r="K237" s="3">
         <f>J237/SUM(J236:J238)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L237" s="1">
         <f>(J237+$M$1)/(SUM(J236:J238)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.2">
@@ -8645,11 +8678,11 @@
       </c>
       <c r="K238" s="3">
         <f>J238/SUM(J236:J238)</f>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L238" s="1">
         <f>(J238+$M$1)/(SUM(J236:J238)+$M$1*3)</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.2">
@@ -8737,7 +8770,9 @@
       <c r="C242" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D242" s="3"/>
+      <c r="D242" s="3">
+        <v>1</v>
+      </c>
       <c r="E242" s="3"/>
       <c r="F242" s="3"/>
       <c r="G242" s="3"/>
@@ -8749,15 +8784,15 @@
       </c>
       <c r="J242" s="3">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K242" s="3">
         <f>J242/SUM(J242:J244)</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="L242" s="1">
         <f>(J242+$M$1)/(SUM(J242:J244)+$M$1*3)</f>
-        <v>0.3888888888888889</v>
+        <v>0.47619047619047622</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.2">
@@ -8782,11 +8817,11 @@
       </c>
       <c r="K243" s="3">
         <f>J243/SUM(J242:J244)</f>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L243" s="1">
         <f>(J243+$M$1)/(SUM(J242:J244)+$M$1*3)</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.2">
@@ -8809,11 +8844,11 @@
       </c>
       <c r="K244" s="3">
         <f>J244/SUM(J242:J244)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L244" s="1">
         <f>(J244+$M$1)/(SUM(J242:J244)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.2">
@@ -8835,28 +8870,31 @@
       </c>
       <c r="K245" s="1">
         <f>J245/SUM(J245:J247)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L245" s="1">
         <f>(J245+$M$1)/(SUM(J245:J247)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C246" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D246" s="1">
+        <v>1</v>
+      </c>
       <c r="J246" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K246" s="1">
         <f>J246/SUM(J245:J247)</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L246" s="1">
         <f>(J246+$M$1)/(SUM(J245:J247)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.2">
@@ -8881,11 +8919,11 @@
       </c>
       <c r="K247" s="1">
         <f>J247/SUM(J245:J247)</f>
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L247" s="1">
         <f>(J247+$M$1)/(SUM(J245:J247)+$M$1*3)</f>
-        <v>0.72222222222222221</v>
+        <v>0.61904761904761896</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.2">

--- a/MatRumNam3614/resultados.xlsx
+++ b/MatRumNam3614/resultados.xlsx
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="D256" sqref="D256"/>
+    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="D252" sqref="D252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -776,15 +776,15 @@
       </c>
       <c r="P7">
         <f>L17</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="Q7">
         <f>L18</f>
-        <v>0.72222222222222221</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="R7">
         <f>L19</f>
-        <v>5.5555555555555552E-2</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -1161,15 +1161,15 @@
       </c>
       <c r="P15">
         <f>L41</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="Q15">
         <f>L42</f>
-        <v>0.22222222222222221</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="R15">
         <f>L43</f>
-        <v>0.55555555555555558</v>
+        <v>0.47619047619047622</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -1238,11 +1238,11 @@
       </c>
       <c r="K17" s="1">
         <f>J17/SUM(J17:J19)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L17" s="1">
         <f>(J17+$M$1)/(SUM(J17:J19)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="N17" t="str">
         <f>A47</f>
@@ -1287,11 +1287,11 @@
       </c>
       <c r="K18" s="1">
         <f>J18/SUM(J17:J19)</f>
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L18" s="1">
         <f>(J18+$M$1)/(SUM(J17:J19)+$M$1*3)</f>
-        <v>0.72222222222222221</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="N18" t="str">
         <f>A50</f>
@@ -1318,17 +1318,20 @@
       <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
       <c r="J19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
         <f>J19/SUM(J17:J19)</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L19" s="1">
         <f>(J19+$M$1)/(SUM(J17:J19)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="N19" t="str">
         <f>A53</f>
@@ -2096,15 +2099,15 @@
       </c>
       <c r="P35">
         <f>L101</f>
-        <v>0.72222222222222221</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="Q35">
         <f>L102</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="R35">
         <f>L103</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
@@ -2363,11 +2366,11 @@
       </c>
       <c r="K41" s="1">
         <f>J41/SUM(J41:J43)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L41" s="1">
         <f>(J41+$M$1)/(SUM(J41:J43)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="N41" t="str">
         <f>A119</f>
@@ -2394,20 +2397,23 @@
       <c r="C42" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
       <c r="E42" s="1">
         <v>1</v>
       </c>
       <c r="J42" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K42" s="1">
         <f>J42/SUM(J41:J43)</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L42" s="1">
         <f>(J42+$M$1)/(SUM(J41:J43)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="N42" t="str">
         <f>A122</f>
@@ -2449,11 +2455,11 @@
       </c>
       <c r="K43" s="1">
         <f>J43/SUM(J41:J43)</f>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L43" s="1">
         <f>(J43+$M$1)/(SUM(J41:J43)+$M$1*3)</f>
-        <v>0.55555555555555558</v>
+        <v>0.47619047619047622</v>
       </c>
       <c r="N43" t="str">
         <f>A125</f>
@@ -2569,15 +2575,15 @@
       </c>
       <c r="P45">
         <f>L131</f>
-        <v>0.72222222222222221</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="Q45">
         <f>L132</f>
-        <v>5.5555555555555552E-2</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="R45">
         <f>L133</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
@@ -4412,15 +4418,15 @@
       </c>
       <c r="P85">
         <f>L251</f>
-        <v>8.3333333333333329E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Q85">
         <f>L252</f>
-        <v>8.3333333333333329E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="R85">
         <f>L253</f>
-        <v>0.83333333333333337</v>
+        <v>0.86666666666666659</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.2">
@@ -4965,6 +4971,9 @@
       <c r="C101" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D101" s="1">
+        <v>1</v>
+      </c>
       <c r="E101" s="1">
         <v>1</v>
       </c>
@@ -4979,15 +4988,15 @@
       </c>
       <c r="J101" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K101" s="1">
         <f>J101/SUM(J101:J103)</f>
-        <v>0.8</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="L101" s="1">
         <f>(J101+$M$1)/(SUM(J101:J103)+$M$1*3)</f>
-        <v>0.72222222222222221</v>
+        <v>0.76190476190476186</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -5003,11 +5012,11 @@
       </c>
       <c r="K102" s="1">
         <f>J102/SUM(J101:J103)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L102" s="1">
         <f>(J102+$M$1)/(SUM(J101:J103)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -5024,7 +5033,7 @@
       </c>
       <c r="L103" s="1">
         <f>(J103+$M$1)/(SUM(J101:J103)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -5790,28 +5799,31 @@
       </c>
       <c r="K131" s="1">
         <f>J131/SUM(J131:J133)</f>
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L131" s="1">
         <f>(J131+$M$1)/(SUM(J131:J133)+$M$1*3)</f>
-        <v>0.72222222222222221</v>
+        <v>0.61904761904761896</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C132" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D132" s="1">
+        <v>1</v>
+      </c>
       <c r="J132" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K132" s="1">
         <f>J132/SUM(J131:J133)</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L132" s="1">
         <f>(J132+$M$1)/(SUM(J131:J133)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
@@ -5827,11 +5839,11 @@
       </c>
       <c r="K133" s="1">
         <f>J133/SUM(J131:J133)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L133" s="1">
         <f>(J133+$M$1)/(SUM(J131:J133)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
@@ -9035,7 +9047,7 @@
       </c>
       <c r="L251" s="1">
         <f>(J251+$M$1)/(SUM(J251:J253)+$M$1*3)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.2">
@@ -9052,13 +9064,16 @@
       </c>
       <c r="L252" s="1">
         <f>(J252+$M$1)/(SUM(J251:J253)+$M$1*3)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C253" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="D253" s="1">
+        <v>1</v>
+      </c>
       <c r="F253" s="1">
         <v>1</v>
       </c>
@@ -9070,7 +9085,7 @@
       </c>
       <c r="J253" s="4">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K253" s="1">
         <f>J253/SUM(J251:J253)</f>
@@ -9078,7 +9093,7 @@
       </c>
       <c r="L253" s="1">
         <f>(J253+$M$1)/(SUM(J251:J253)+$M$1*3)</f>
-        <v>0.83333333333333337</v>
+        <v>0.86666666666666659</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.2">

--- a/MatRumNam3614/resultados.xlsx
+++ b/MatRumNam3614/resultados.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -232,6 +232,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -267,6 +284,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="D252" sqref="D252"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -696,15 +730,15 @@
       </c>
       <c r="P5">
         <f>L11</f>
-        <v>0.55555555555555558</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="Q5">
         <f>L12</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="R5">
         <f>L13</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -946,6 +980,9 @@
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
@@ -957,15 +994,15 @@
       </c>
       <c r="J11" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K11" s="1">
         <f>J11/SUM(J11:J13)</f>
-        <v>0.6</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L11" s="1">
         <f>(J11+$M$1)/(SUM(J11:J13)+$M$1*3)</f>
-        <v>0.55555555555555558</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="N11" t="str">
         <f>A29</f>
@@ -1004,11 +1041,11 @@
       </c>
       <c r="K12" s="1">
         <f>J12/SUM(J11:J13)</f>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L12" s="1">
         <f>(J12+$M$1)/(SUM(J11:J13)+$M$1*3)</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="N12" t="str">
         <f>A32</f>
@@ -1045,7 +1082,7 @@
       </c>
       <c r="L13" s="1">
         <f>(J13+$M$1)/(SUM(J11:J13)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="N13" t="str">
         <f>A35</f>
@@ -1208,15 +1245,15 @@
       </c>
       <c r="P16">
         <f>L44</f>
-        <v>0.55555555555555558</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="Q16">
         <f>L45</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="R16">
         <f>L46</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
@@ -1402,15 +1439,15 @@
       </c>
       <c r="P20">
         <f>L56</f>
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="Q20">
         <f>L57</f>
-        <v>0.33333333333333331</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="R20">
         <f>L58</f>
-        <v>8.3333333333333329E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
@@ -2139,15 +2176,15 @@
       </c>
       <c r="P36">
         <f>L104</f>
-        <v>0.3888888888888889</v>
+        <v>0.47619047619047622</v>
       </c>
       <c r="Q36">
         <f>L105</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="R36">
         <f>L106</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
@@ -2382,15 +2419,15 @@
       </c>
       <c r="P41">
         <f>L119</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="Q41">
         <f>L120</f>
-        <v>0.3888888888888889</v>
+        <v>0.47619047619047622</v>
       </c>
       <c r="R41">
         <f>L121</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
@@ -2492,7 +2529,9 @@
       <c r="C44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="3"/>
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
       <c r="E44" s="3">
         <v>1</v>
       </c>
@@ -2506,15 +2545,15 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <f>J44/SUM(J44:J46)</f>
-        <v>0.6</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L44" s="1">
         <f>(J44+$M$1)/(SUM(J44:J46)+$M$1*3)</f>
-        <v>0.55555555555555558</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="N44" t="str">
         <f>A128</f>
@@ -2559,11 +2598,11 @@
       </c>
       <c r="K45" s="3">
         <f>J45/SUM(J44:J46)</f>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L45" s="1">
         <f>(J45+$M$1)/(SUM(J44:J46)+$M$1*3)</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="N45" t="str">
         <f>A131</f>
@@ -2608,7 +2647,7 @@
       </c>
       <c r="L46" s="1">
         <f>(J46+$M$1)/(SUM(J44:J46)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="N46" t="str">
         <f>A134</f>
@@ -3041,15 +3080,15 @@
       </c>
       <c r="P55">
         <f>L161</f>
-        <v>0.72222222222222221</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="Q55">
         <f>L162</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="R55">
         <f>L163</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
@@ -3062,7 +3101,9 @@
       <c r="C56" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="3"/>
+      <c r="D56" s="3">
+        <v>1</v>
+      </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3">
@@ -3074,15 +3115,15 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K56" s="3">
         <f>J56/SUM(J56:J58)</f>
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="L56" s="1">
         <f>(J56+$M$1)/(SUM(J56:J58)+$M$1*3)</f>
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="N56" t="str">
         <f>A164</f>
@@ -3125,11 +3166,11 @@
       </c>
       <c r="K57" s="3">
         <f>J57/SUM(J56:J58)</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="L57" s="1">
         <f>(J57+$M$1)/(SUM(J56:J58)+$M$1*3)</f>
-        <v>0.33333333333333331</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="N57" t="str">
         <f>A167</f>
@@ -3174,7 +3215,7 @@
       </c>
       <c r="L58" s="1">
         <f>(J58+$M$1)/(SUM(J56:J58)+$M$1*3)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="N58" t="str">
         <f>A170</f>
@@ -3370,15 +3411,15 @@
       </c>
       <c r="P62">
         <f>L182</f>
-        <v>0.72222222222222221</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="Q62">
         <f>L183</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="R62">
         <f>L184</f>
-        <v>5.5555555555555552E-2</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
@@ -3589,15 +3630,15 @@
       </c>
       <c r="P67">
         <f>L197</f>
-        <v>8.3333333333333329E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Q67">
         <f>L198</f>
-        <v>0.58333333333333337</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="R67">
         <f>L199</f>
-        <v>0.33333333333333331</v>
+        <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
@@ -4136,15 +4177,15 @@
       </c>
       <c r="P79">
         <f>L233</f>
-        <v>0.55555555555555558</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="Q79">
         <f>L234</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="R79">
         <f>L235</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.2">
@@ -4369,15 +4410,15 @@
       </c>
       <c r="P84">
         <f>L248</f>
-        <v>0.72222222222222221</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="Q84">
         <f>L249</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="R84">
         <f>L250</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
@@ -5046,7 +5087,9 @@
       <c r="C104" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D104" s="3"/>
+      <c r="D104" s="3">
+        <v>1</v>
+      </c>
       <c r="E104" s="3">
         <v>1</v>
       </c>
@@ -5058,15 +5101,15 @@
       </c>
       <c r="J104" s="3">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K104" s="3">
         <f>J104/SUM(J104:J106)</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="L104" s="1">
         <f>(J104+$M$1)/(SUM(J104:J106)+$M$1*3)</f>
-        <v>0.3888888888888889</v>
+        <v>0.47619047619047622</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -5091,11 +5134,11 @@
       </c>
       <c r="K105" s="3">
         <f>J105/SUM(J104:J106)</f>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L105" s="1">
         <f>(J105+$M$1)/(SUM(J104:J106)+$M$1*3)</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -5118,11 +5161,11 @@
       </c>
       <c r="K106" s="3">
         <f>J106/SUM(J104:J106)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L106" s="1">
         <f>(J106+$M$1)/(SUM(J104:J106)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -5467,17 +5510,20 @@
       </c>
       <c r="K119" s="1">
         <f>J119/SUM(J119:J121)</f>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L119" s="1">
         <f>(J119+$M$1)/(SUM(J119:J121)+$M$1*3)</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C120" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D120" s="1">
+        <v>1</v>
+      </c>
       <c r="E120" s="1">
         <v>1</v>
       </c>
@@ -5486,15 +5532,15 @@
       </c>
       <c r="J120" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K120" s="1">
         <f>J120/SUM(J119:J121)</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="L120" s="1">
         <f>(J120+$M$1)/(SUM(J119:J121)+$M$1*3)</f>
-        <v>0.3888888888888889</v>
+        <v>0.47619047619047622</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
@@ -5510,11 +5556,11 @@
       </c>
       <c r="K121" s="1">
         <f>J121/SUM(J119:J121)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L121" s="1">
         <f>(J121+$M$1)/(SUM(J119:J121)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
@@ -6596,6 +6642,9 @@
       <c r="C161" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D161" s="1">
+        <v>1</v>
+      </c>
       <c r="E161" s="1">
         <v>1</v>
       </c>
@@ -6610,15 +6659,15 @@
       </c>
       <c r="J161" s="4">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K161" s="1">
         <f>J161/SUM(J161:J163)</f>
-        <v>0.8</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="L161" s="1">
         <f>(J161+$M$1)/(SUM(J161:J163)+$M$1*3)</f>
-        <v>0.72222222222222221</v>
+        <v>0.76190476190476186</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
@@ -6635,7 +6684,7 @@
       </c>
       <c r="L162" s="1">
         <f>(J162+$M$1)/(SUM(J161:J163)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
@@ -6651,11 +6700,11 @@
       </c>
       <c r="K163" s="1">
         <f>J163/SUM(J161:J163)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L163" s="1">
         <f>(J163+$M$1)/(SUM(J161:J163)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
@@ -7179,11 +7228,11 @@
       </c>
       <c r="K182" s="3">
         <f>J182/SUM(J182:J184)</f>
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L182" s="1">
         <f>(J182+$M$1)/(SUM(J182:J184)+$M$1*3)</f>
-        <v>0.72222222222222221</v>
+        <v>0.61904761904761896</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
@@ -7206,11 +7255,11 @@
       </c>
       <c r="K183" s="3">
         <f>J183/SUM(J182:J184)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L183" s="1">
         <f>(J183+$M$1)/(SUM(J182:J184)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
@@ -7219,7 +7268,9 @@
       <c r="C184" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D184" s="3"/>
+      <c r="D184" s="3">
+        <v>1</v>
+      </c>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
@@ -7227,15 +7278,15 @@
       <c r="I184" s="3"/>
       <c r="J184" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K184" s="3">
         <f>J184/SUM(J182:J184)</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L184" s="1">
         <f>(J184+$M$1)/(SUM(J182:J184)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
@@ -7583,7 +7634,7 @@
       </c>
       <c r="L197" s="1">
         <f>(J197+$M$1)/(SUM(J197:J199)+$M$1*3)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
@@ -7602,31 +7653,34 @@
       </c>
       <c r="K198" s="1">
         <f>J198/SUM(J197:J199)</f>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="L198" s="1">
         <f>(J198+$M$1)/(SUM(J197:J199)+$M$1*3)</f>
-        <v>0.58333333333333337</v>
+        <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C199" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="D199" s="1">
+        <v>1</v>
+      </c>
       <c r="H199" s="1">
         <v>1</v>
       </c>
       <c r="J199" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K199" s="1">
         <f>J199/SUM(J197:J199)</f>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="L199" s="1">
         <f>(J199+$M$1)/(SUM(J197:J199)+$M$1*3)</f>
-        <v>0.33333333333333331</v>
+        <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
@@ -8544,6 +8598,9 @@
       <c r="C233" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D233" s="1">
+        <v>1</v>
+      </c>
       <c r="G233" s="1">
         <v>1</v>
       </c>
@@ -8555,15 +8612,15 @@
       </c>
       <c r="J233" s="4">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K233" s="1">
         <f>J233/SUM(J233:J235)</f>
-        <v>0.6</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L233" s="1">
         <f>(J233+$M$1)/(SUM(J233:J235)+$M$1*3)</f>
-        <v>0.55555555555555558</v>
+        <v>0.61904761904761896</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.2">
@@ -8582,11 +8639,11 @@
       </c>
       <c r="K234" s="1">
         <f>J234/SUM(J233:J235)</f>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L234" s="1">
         <f>(J234+$M$1)/(SUM(J233:J235)+$M$1*3)</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.2">
@@ -8603,7 +8660,7 @@
       </c>
       <c r="L235" s="1">
         <f>(J235+$M$1)/(SUM(J233:J235)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.2">
@@ -8948,7 +9005,9 @@
       <c r="C248" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D248" s="3"/>
+      <c r="D248" s="3">
+        <v>1</v>
+      </c>
       <c r="E248" s="3">
         <v>1</v>
       </c>
@@ -8964,15 +9023,15 @@
       <c r="I248" s="3"/>
       <c r="J248" s="3">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K248" s="3">
         <f>J248/SUM(J248:J250)</f>
-        <v>0.8</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="L248" s="1">
         <f>(J248+$M$1)/(SUM(J248:J250)+$M$1*3)</f>
-        <v>0.72222222222222221</v>
+        <v>0.76190476190476186</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.2">
@@ -8995,11 +9054,11 @@
       </c>
       <c r="K249" s="3">
         <f>J249/SUM(J248:J250)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L249" s="1">
         <f>(J249+$M$1)/(SUM(J248:J250)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.2">
@@ -9024,7 +9083,7 @@
       </c>
       <c r="L250" s="1">
         <f>(J250+$M$1)/(SUM(J248:J250)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.2">

--- a/MatRumNam3614/resultados.xlsx
+++ b/MatRumNam3614/resultados.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="D266" sqref="D266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -681,15 +681,15 @@
       </c>
       <c r="P4">
         <f>L8</f>
-        <v>0.55555555555555558</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="Q4">
         <f>L9</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="R4">
         <f>L10</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -831,7 +831,9 @@
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
       <c r="E8" s="3">
         <v>1</v>
       </c>
@@ -845,15 +847,15 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <f>J8/SUM(J8:J10)</f>
-        <v>0.6</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L8" s="1">
         <f>(J8+$M$1)/(SUM(J8:J10)+$M$1*3)</f>
-        <v>0.55555555555555558</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="N8" t="str">
         <f>A20</f>
@@ -898,11 +900,11 @@
       </c>
       <c r="K9" s="3">
         <f>J9/SUM(J8:J10)</f>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L9" s="1">
         <f>(J9+$M$1)/(SUM(J8:J10)+$M$1*3)</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="N9" t="str">
         <f>A23</f>
@@ -947,7 +949,7 @@
       </c>
       <c r="L10" s="1">
         <f>(J10+$M$1)/(SUM(J8:J10)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="N10" t="str">
         <f>A26</f>
@@ -1014,15 +1016,15 @@
       </c>
       <c r="P11">
         <f>L29</f>
-        <v>0.3888888888888889</v>
+        <v>0.47619047619047622</v>
       </c>
       <c r="Q11">
         <f>L30</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="R11">
         <f>L31</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -1664,15 +1666,15 @@
       </c>
       <c r="P25">
         <f>L71</f>
-        <v>0.83333333333333337</v>
+        <v>0.86666666666666659</v>
       </c>
       <c r="Q25">
         <f>L72</f>
-        <v>8.3333333333333329E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="R25">
         <f>L73</f>
-        <v>8.3333333333333329E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
@@ -1834,6 +1836,9 @@
       <c r="C29" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
       <c r="F29" s="1">
         <v>1</v>
       </c>
@@ -1842,15 +1847,15 @@
       </c>
       <c r="J29" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K29" s="1">
         <f>J29/SUM(J29:J31)</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="L29" s="1">
         <f>(J29+$M$1)/(SUM(J29:J31)+$M$1*3)</f>
-        <v>0.3888888888888889</v>
+        <v>0.47619047619047622</v>
       </c>
       <c r="N29" t="str">
         <f>A83</f>
@@ -1889,11 +1894,11 @@
       </c>
       <c r="K30" s="1">
         <f>J30/SUM(J29:J31)</f>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L30" s="1">
         <f>(J30+$M$1)/(SUM(J29:J31)+$M$1*3)</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="N30" t="str">
         <f>A86</f>
@@ -1929,11 +1934,11 @@
       </c>
       <c r="K31" s="1">
         <f>J31/SUM(J29:J31)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L31" s="1">
         <f>(J31+$M$1)/(SUM(J29:J31)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="N31" t="str">
         <f>A89</f>
@@ -2222,15 +2227,15 @@
       </c>
       <c r="P37">
         <f>L107</f>
-        <v>0.55555555555555558</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="Q37">
         <f>L108</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="R37">
         <f>L109</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -2324,15 +2329,15 @@
       </c>
       <c r="P39">
         <f>L113</f>
-        <v>0.88888888888888884</v>
+        <v>0.90476190476190477</v>
       </c>
       <c r="Q39">
         <f>L114</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="R39">
         <f>L115</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
@@ -2898,15 +2903,15 @@
       </c>
       <c r="P51">
         <f>L149</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="Q51">
         <f>L150</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="R51">
         <f>L151</f>
-        <v>0.22222222222222221</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
@@ -3356,15 +3361,15 @@
       </c>
       <c r="P61">
         <f>L179</f>
-        <v>0.88888888888888884</v>
+        <v>0.90476190476190477</v>
       </c>
       <c r="Q61">
         <f>L180</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="R61">
         <f>L181</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
@@ -3796,6 +3801,9 @@
       <c r="C71" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D71" s="1">
+        <v>1</v>
+      </c>
       <c r="F71" s="1">
         <v>1</v>
       </c>
@@ -3807,7 +3815,7 @@
       </c>
       <c r="J71" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K71" s="1">
         <f>J71/SUM(J71:J73)</f>
@@ -3815,7 +3823,7 @@
       </c>
       <c r="L71" s="1">
         <f>(J71+$M$1)/(SUM(J71:J73)+$M$1*3)</f>
-        <v>0.83333333333333337</v>
+        <v>0.86666666666666659</v>
       </c>
       <c r="N71" t="str">
         <f>A209</f>
@@ -3852,7 +3860,7 @@
       </c>
       <c r="L72" s="1">
         <f>(J72+$M$1)/(SUM(J71:J73)+$M$1*3)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="N72" t="str">
         <f>A212</f>
@@ -3864,15 +3872,15 @@
       </c>
       <c r="P72">
         <f>L212</f>
-        <v>0.3888888888888889</v>
+        <v>0.47619047619047622</v>
       </c>
       <c r="Q72">
         <f>L213</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="R72">
         <f>L214</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
@@ -3889,7 +3897,7 @@
       </c>
       <c r="L73" s="1">
         <f>(J73+$M$1)/(SUM(J71:J73)+$M$1*3)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="N73" t="str">
         <f>A215</f>
@@ -4048,15 +4056,15 @@
       </c>
       <c r="P76">
         <f>L224</f>
-        <v>0.33333333333333331</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="Q76">
         <f>L225</f>
-        <v>0.33333333333333331</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="R76">
         <f>L226</f>
-        <v>0.33333333333333331</v>
+        <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
@@ -4699,15 +4707,15 @@
       </c>
       <c r="P90">
         <f>L266</f>
-        <v>0.72222222222222221</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="Q90">
         <f>L267</f>
-        <v>5.5555555555555552E-2</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="R90">
         <f>L268</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.2">
@@ -5178,6 +5186,9 @@
       <c r="C107" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D107" s="1">
+        <v>1</v>
+      </c>
       <c r="E107" s="1">
         <v>1</v>
       </c>
@@ -5189,15 +5200,15 @@
       </c>
       <c r="J107" s="4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K107" s="1">
         <f>J107/SUM(J107:J109)</f>
-        <v>0.6</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L107" s="1">
         <f>(J107+$M$1)/(SUM(J107:J109)+$M$1*3)</f>
-        <v>0.55555555555555558</v>
+        <v>0.61904761904761896</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
@@ -5213,11 +5224,11 @@
       </c>
       <c r="K108" s="1">
         <f>J108/SUM(J107:J109)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L108" s="1">
         <f>(J108+$M$1)/(SUM(J107:J109)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
@@ -5233,11 +5244,11 @@
       </c>
       <c r="K109" s="1">
         <f>J109/SUM(J107:J109)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L109" s="1">
         <f>(J109+$M$1)/(SUM(J107:J109)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
@@ -5341,6 +5352,9 @@
       <c r="C113" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D113" s="1">
+        <v>1</v>
+      </c>
       <c r="E113" s="1">
         <v>1</v>
       </c>
@@ -5358,7 +5372,7 @@
       </c>
       <c r="J113" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K113" s="1">
         <f>J113/SUM(J113:J115)</f>
@@ -5366,7 +5380,7 @@
       </c>
       <c r="L113" s="1">
         <f>(J113+$M$1)/(SUM(J113:J115)+$M$1*3)</f>
-        <v>0.88888888888888884</v>
+        <v>0.90476190476190477</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
@@ -5383,7 +5397,7 @@
       </c>
       <c r="L114" s="1">
         <f>(J114+$M$1)/(SUM(J113:J115)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
@@ -5400,7 +5414,7 @@
       </c>
       <c r="L115" s="1">
         <f>(J115+$M$1)/(SUM(J113:J115)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
@@ -6328,11 +6342,11 @@
       </c>
       <c r="K149" s="1">
         <f>J149/SUM(J149:J151)</f>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L149" s="1">
         <f>(J149+$M$1)/(SUM(J149:J151)+$M$1*3)</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
@@ -6351,31 +6365,34 @@
       </c>
       <c r="K150" s="1">
         <f>J150/SUM(J149:J151)</f>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L150" s="1">
         <f>(J150+$M$1)/(SUM(J149:J151)+$M$1*3)</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C151" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="D151" s="1">
+        <v>1</v>
+      </c>
       <c r="I151" s="1">
         <v>1</v>
       </c>
       <c r="J151" s="4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K151" s="1">
         <f>J151/SUM(J149:J151)</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L151" s="1">
         <f>(J151+$M$1)/(SUM(J149:J151)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
@@ -7136,6 +7153,9 @@
       <c r="C179" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D179" s="1">
+        <v>1</v>
+      </c>
       <c r="E179" s="1">
         <v>1</v>
       </c>
@@ -7153,7 +7173,7 @@
       </c>
       <c r="J179" s="4">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K179" s="1">
         <f>J179/SUM(J179:J181)</f>
@@ -7161,7 +7181,7 @@
       </c>
       <c r="L179" s="1">
         <f>(J179+$M$1)/(SUM(J179:J181)+$M$1*3)</f>
-        <v>0.88888888888888884</v>
+        <v>0.90476190476190477</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
@@ -7178,7 +7198,7 @@
       </c>
       <c r="L180" s="1">
         <f>(J180+$M$1)/(SUM(J179:J181)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
@@ -7195,7 +7215,7 @@
       </c>
       <c r="L181" s="1">
         <f>(J181+$M$1)/(SUM(J179:J181)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.2">
@@ -8022,7 +8042,9 @@
       <c r="C212" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D212" s="3"/>
+      <c r="D212" s="3">
+        <v>1</v>
+      </c>
       <c r="E212" s="3"/>
       <c r="F212" s="3">
         <v>1</v>
@@ -8034,15 +8056,15 @@
       </c>
       <c r="J212" s="3">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K212" s="3">
         <f>J212/SUM(J212:J214)</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="L212" s="1">
         <f>(J212+$M$1)/(SUM(J212:J214)+$M$1*3)</f>
-        <v>0.3888888888888889</v>
+        <v>0.47619047619047622</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
@@ -8065,11 +8087,11 @@
       </c>
       <c r="K213" s="3">
         <f>J213/SUM(J212:J214)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L213" s="1">
         <f>(J213+$M$1)/(SUM(J212:J214)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
@@ -8094,11 +8116,11 @@
       </c>
       <c r="K214" s="3">
         <f>J214/SUM(J212:J214)</f>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L214" s="1">
         <f>(J214+$M$1)/(SUM(J212:J214)+$M$1*3)</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
@@ -8361,11 +8383,11 @@
       </c>
       <c r="K224" s="3">
         <f>J224/SUM(J224:J226)</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="L224" s="1">
         <f>(J224+$M$1)/(SUM(J224:J226)+$M$1*3)</f>
-        <v>0.33333333333333331</v>
+        <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
@@ -8388,11 +8410,11 @@
       </c>
       <c r="K225" s="3">
         <f>J225/SUM(J224:J226)</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="L225" s="1">
         <f>(J225+$M$1)/(SUM(J224:J226)+$M$1*3)</f>
-        <v>0.33333333333333331</v>
+        <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
@@ -8401,7 +8423,9 @@
       <c r="C226" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D226" s="3"/>
+      <c r="D226" s="3">
+        <v>1</v>
+      </c>
       <c r="E226" s="3"/>
       <c r="F226" s="3">
         <v>1</v>
@@ -8411,15 +8435,15 @@
       <c r="I226" s="3"/>
       <c r="J226" s="3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K226" s="3">
         <f>J226/SUM(J224:J226)</f>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="L226" s="1">
         <f>(J226+$M$1)/(SUM(J224:J226)+$M$1*3)</f>
-        <v>0.33333333333333331</v>
+        <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
@@ -9514,11 +9538,11 @@
       </c>
       <c r="K266" s="3">
         <f>J266/SUM(J266:J268)</f>
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L266" s="1">
         <f>(J266+$M$1)/(SUM(J266:J268)+$M$1*3)</f>
-        <v>0.72222222222222221</v>
+        <v>0.61904761904761896</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
@@ -9527,7 +9551,9 @@
       <c r="C267" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D267" s="3"/>
+      <c r="D267" s="3">
+        <v>1</v>
+      </c>
       <c r="E267" s="3"/>
       <c r="F267" s="3"/>
       <c r="G267" s="3"/>
@@ -9535,15 +9561,15 @@
       <c r="I267" s="3"/>
       <c r="J267" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K267" s="3">
         <f>J267/SUM(J266:J268)</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L267" s="1">
         <f>(J267+$M$1)/(SUM(J266:J268)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
@@ -9566,11 +9592,11 @@
       </c>
       <c r="K268" s="3">
         <f>J268/SUM(J266:J268)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L268" s="1">
         <f>(J268+$M$1)/(SUM(J266:J268)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">

--- a/MatRumNam3614/resultados.xlsx
+++ b/MatRumNam3614/resultados.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="D266" sqref="D266"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="E214" sqref="E214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -961,15 +961,15 @@
       </c>
       <c r="P10">
         <f>L26</f>
-        <v>0.88888888888888884</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="Q10">
         <f>L27</f>
-        <v>5.5555555555555552E-2</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="R10">
         <f>L28</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -1096,15 +1096,15 @@
       </c>
       <c r="P13">
         <f>L35</f>
-        <v>0.22222222222222221</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="Q13">
         <f>L36</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="R13">
         <f>L37</f>
-        <v>0.55555555555555558</v>
+        <v>0.47619047619047622</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -1629,15 +1629,15 @@
       </c>
       <c r="P24">
         <f>L68</f>
-        <v>0.83333333333333337</v>
+        <v>0.86666666666666659</v>
       </c>
       <c r="Q24">
         <f>L69</f>
-        <v>8.3333333333333329E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="R24">
         <f>L70</f>
-        <v>8.3333333333333329E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
@@ -1709,11 +1709,11 @@
       </c>
       <c r="K26" s="3">
         <f>J26/SUM(J26:J28)</f>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="L26" s="1">
         <f>(J26+$M$1)/(SUM(J26:J28)+$M$1*3)</f>
-        <v>0.88888888888888884</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="N26" t="str">
         <f>A74</f>
@@ -1742,7 +1742,9 @@
       <c r="C27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1750,15 +1752,15 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="3">
         <f>J27/SUM(J26:J28)</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L27" s="1">
         <f>(J27+$M$1)/(SUM(J26:J28)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="N27" t="str">
         <f>A77</f>
@@ -1803,7 +1805,7 @@
       </c>
       <c r="L28" s="1">
         <f>(J28+$M$1)/(SUM(J26:J28)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="N28" t="str">
         <f>A80</f>
@@ -2095,15 +2097,15 @@
       </c>
       <c r="P34">
         <f>L98</f>
-        <v>0.55555555555555558</v>
+        <v>0.47619047619047622</v>
       </c>
       <c r="Q34">
         <f>L99</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="R34">
         <f>L100</f>
-        <v>0.3888888888888889</v>
+        <v>0.47619047619047622</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
@@ -2116,20 +2118,23 @@
       <c r="C35" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
       <c r="H35" s="1">
         <v>1</v>
       </c>
       <c r="J35" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K35" s="1">
         <f>J35/SUM(J35:J37)</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L35" s="1">
         <f>(J35+$M$1)/(SUM(J35:J37)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="N35" t="str">
         <f>A101</f>
@@ -2165,11 +2170,11 @@
       </c>
       <c r="K36" s="1">
         <f>J36/SUM(J35:J37)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L36" s="1">
         <f>(J36+$M$1)/(SUM(J35:J37)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="N36" t="str">
         <f>A104</f>
@@ -2211,11 +2216,11 @@
       </c>
       <c r="K37" s="1">
         <f>J37/SUM(J35:J37)</f>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L37" s="1">
         <f>(J37+$M$1)/(SUM(J35:J37)+$M$1*3)</f>
-        <v>0.55555555555555558</v>
+        <v>0.47619047619047622</v>
       </c>
       <c r="N37" t="str">
         <f>A107</f>
@@ -2378,15 +2383,15 @@
       </c>
       <c r="P40">
         <f>L116</f>
-        <v>8.3333333333333329E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="Q40">
         <f>L117</f>
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="R40">
         <f>L118</f>
-        <v>0.33333333333333331</v>
+        <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
@@ -3005,15 +3010,15 @@
       </c>
       <c r="P53">
         <f>L155</f>
-        <v>0.72222222222222221</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="Q53">
         <f>L156</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="R53">
         <f>L157</f>
-        <v>5.5555555555555552E-2</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
@@ -3461,15 +3466,15 @@
       </c>
       <c r="P63">
         <f>L185</f>
-        <v>0.72222222222222221</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="Q63">
         <f>L186</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="R63">
         <f>L187</f>
-        <v>5.5555555555555552E-2</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
@@ -3598,15 +3603,15 @@
       </c>
       <c r="P66">
         <f>L194</f>
-        <v>0.55555555555555558</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="Q66">
         <f>L195</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="R66">
         <f>L196</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
@@ -3656,7 +3661,9 @@
       <c r="C68" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D68" s="3"/>
+      <c r="D68" s="3">
+        <v>1</v>
+      </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3">
         <v>1</v>
@@ -3670,7 +3677,7 @@
       <c r="I68" s="3"/>
       <c r="J68" s="3">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K68" s="3">
         <f>J68/SUM(J68:J70)</f>
@@ -3678,7 +3685,7 @@
       </c>
       <c r="L68" s="1">
         <f>(J68+$M$1)/(SUM(J68:J70)+$M$1*3)</f>
-        <v>0.83333333333333337</v>
+        <v>0.86666666666666659</v>
       </c>
       <c r="N68" t="str">
         <f>A200</f>
@@ -3723,7 +3730,7 @@
       </c>
       <c r="L69" s="1">
         <f>(J69+$M$1)/(SUM(J68:J70)+$M$1*3)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="N69" t="str">
         <f>A203</f>
@@ -3768,7 +3775,7 @@
       </c>
       <c r="L70" s="1">
         <f>(J70+$M$1)/(SUM(J68:J70)+$M$1*3)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="N70" t="str">
         <f>A206</f>
@@ -3964,15 +3971,15 @@
       </c>
       <c r="P74">
         <f>L218</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="Q74">
         <f>L219</f>
-        <v>0.3888888888888889</v>
+        <v>0.47619047619047622</v>
       </c>
       <c r="R74">
         <f>L220</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
@@ -4573,15 +4580,15 @@
       </c>
       <c r="P87">
         <f>L257</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="Q87">
         <f>L258</f>
-        <v>0.3888888888888889</v>
+        <v>0.47619047619047622</v>
       </c>
       <c r="R87">
         <f>L259</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
@@ -4949,11 +4956,11 @@
       </c>
       <c r="K98" s="3">
         <f>J98/SUM(J98:J100)</f>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L98" s="1">
         <f>(J98+$M$1)/(SUM(J98:J100)+$M$1*3)</f>
-        <v>0.55555555555555558</v>
+        <v>0.47619047619047622</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -4978,7 +4985,7 @@
       </c>
       <c r="L99" s="1">
         <f>(J99+$M$1)/(SUM(J98:J100)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -4987,7 +4994,9 @@
       <c r="C100" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D100" s="3"/>
+      <c r="D100" s="3">
+        <v>1</v>
+      </c>
       <c r="E100" s="3"/>
       <c r="F100" s="3">
         <v>1</v>
@@ -4999,15 +5008,15 @@
       <c r="I100" s="3"/>
       <c r="J100" s="3">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K100" s="3">
         <f>J100/SUM(J98:J100)</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="L100" s="1">
         <f>(J100+$M$1)/(SUM(J98:J100)+$M$1*3)</f>
-        <v>0.3888888888888889</v>
+        <v>0.47619047619047622</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -5443,7 +5452,7 @@
       </c>
       <c r="L116" s="1">
         <f>(J116+$M$1)/(SUM(J116:J118)+$M$1*3)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
@@ -5452,7 +5461,9 @@
       <c r="C117" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D117" s="3"/>
+      <c r="D117" s="3">
+        <v>1</v>
+      </c>
       <c r="E117" s="3"/>
       <c r="F117" s="3">
         <v>1</v>
@@ -5464,15 +5475,15 @@
       <c r="I117" s="3"/>
       <c r="J117" s="3">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K117" s="3">
         <f>J117/SUM(J116:J118)</f>
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="L117" s="1">
         <f>(J117+$M$1)/(SUM(J116:J118)+$M$1*3)</f>
-        <v>0.58333333333333337</v>
+        <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
@@ -5495,11 +5506,11 @@
       </c>
       <c r="K118" s="3">
         <f>J118/SUM(J116:J118)</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="L118" s="1">
         <f>(J118+$M$1)/(SUM(J116:J118)+$M$1*3)</f>
-        <v>0.33333333333333331</v>
+        <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
@@ -6514,11 +6525,11 @@
       </c>
       <c r="K155" s="1">
         <f>J155/SUM(J155:J157)</f>
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L155" s="1">
         <f>(J155+$M$1)/(SUM(J155:J157)+$M$1*3)</f>
-        <v>0.72222222222222221</v>
+        <v>0.61904761904761896</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
@@ -6534,28 +6545,31 @@
       </c>
       <c r="K156" s="1">
         <f>J156/SUM(J155:J157)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L156" s="1">
         <f>(J156+$M$1)/(SUM(J155:J157)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C157" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="D157" s="1">
+        <v>1</v>
+      </c>
       <c r="J157" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K157" s="1">
         <f>J157/SUM(J155:J157)</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L157" s="1">
         <f>(J157+$M$1)/(SUM(J155:J157)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
@@ -7337,11 +7351,11 @@
       </c>
       <c r="K185" s="1">
         <f>J185/SUM(J185:J187)</f>
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L185" s="1">
         <f>(J185+$M$1)/(SUM(J185:J187)+$M$1*3)</f>
-        <v>0.72222222222222221</v>
+        <v>0.61904761904761896</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
@@ -7357,28 +7371,31 @@
       </c>
       <c r="K186" s="1">
         <f>J186/SUM(J185:J187)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L186" s="1">
         <f>(J186+$M$1)/(SUM(J185:J187)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C187" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="D187" s="1">
+        <v>1</v>
+      </c>
       <c r="J187" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K187" s="1">
         <f>J187/SUM(J185:J187)</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L187" s="1">
         <f>(J187+$M$1)/(SUM(J185:J187)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
@@ -7555,7 +7572,9 @@
       <c r="C194" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D194" s="3"/>
+      <c r="D194" s="3">
+        <v>1</v>
+      </c>
       <c r="E194" s="3"/>
       <c r="F194" s="3">
         <v>1</v>
@@ -7569,15 +7588,15 @@
       </c>
       <c r="J194" s="3">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K194" s="3">
         <f>J194/SUM(J194:J196)</f>
-        <v>0.6</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L194" s="1">
         <f>(J194+$M$1)/(SUM(J194:J196)+$M$1*3)</f>
-        <v>0.55555555555555558</v>
+        <v>0.61904761904761896</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
@@ -7602,11 +7621,11 @@
       </c>
       <c r="K195" s="3">
         <f>J195/SUM(J194:J196)</f>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L195" s="1">
         <f>(J195+$M$1)/(SUM(J194:J196)+$M$1*3)</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
@@ -7631,7 +7650,7 @@
       </c>
       <c r="L196" s="1">
         <f>(J196+$M$1)/(SUM(J194:J196)+$M$1*3)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
@@ -8224,11 +8243,11 @@
       </c>
       <c r="K218" s="3">
         <f>J218/SUM(J218:J220)</f>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L218" s="1">
         <f>(J218+$M$1)/(SUM(J218:J220)+$M$1*3)</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
@@ -8237,7 +8256,9 @@
       <c r="C219" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D219" s="3"/>
+      <c r="D219" s="3">
+        <v>1</v>
+      </c>
       <c r="E219" s="3"/>
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
@@ -8249,15 +8270,15 @@
       </c>
       <c r="J219" s="3">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K219" s="3">
         <f>J219/SUM(J218:J220)</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="L219" s="1">
         <f>(J219+$M$1)/(SUM(J218:J220)+$M$1*3)</f>
-        <v>0.3888888888888889</v>
+        <v>0.47619047619047622</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.2">
@@ -8280,11 +8301,11 @@
       </c>
       <c r="K220" s="3">
         <f>J220/SUM(J218:J220)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L220" s="1">
         <f>(J220+$M$1)/(SUM(J218:J220)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.2">
@@ -9292,17 +9313,20 @@
       </c>
       <c r="K257" s="1">
         <f>J257/SUM(J257:J259)</f>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L257" s="1">
         <f>(J257+$M$1)/(SUM(J257:J259)+$M$1*3)</f>
-        <v>0.3888888888888889</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C258" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D258" s="1">
+        <v>1</v>
+      </c>
       <c r="G258" s="1">
         <v>1</v>
       </c>
@@ -9311,15 +9335,15 @@
       </c>
       <c r="J258" s="4">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K258" s="1">
         <f>J258/SUM(J257:J259)</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="L258" s="1">
         <f>(J258+$M$1)/(SUM(J257:J259)+$M$1*3)</f>
-        <v>0.3888888888888889</v>
+        <v>0.47619047619047622</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
@@ -9335,11 +9359,11 @@
       </c>
       <c r="K259" s="1">
         <f>J259/SUM(J257:J259)</f>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L259" s="1">
         <f>(J259+$M$1)/(SUM(J257:J259)+$M$1*3)</f>
-        <v>0.22222222222222221</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
